--- a/data/skills_entry.xlsx
+++ b/data/skills_entry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyProfile\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3118157-E6D0-4C1F-B4D5-F694F7EA63E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A2D8B-1532-4D82-9936-51444BD789BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="93">
   <si>
     <t>category</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Working Level</t>
   </si>
   <si>
-    <t>Currently-Using</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
@@ -227,21 +224,9 @@
     <t>DIP TRACE (PCB Designing)</t>
   </si>
   <si>
-    <t>AI, Finance &amp; Automation</t>
-  </si>
-  <si>
     <t>ChatGPT API / Use</t>
   </si>
   <si>
-    <t>Stock Screener Development</t>
-  </si>
-  <si>
-    <t>Crypto Trading Bots</t>
-  </si>
-  <si>
-    <t>Smart Home AI</t>
-  </si>
-  <si>
     <t>Excel Automation</t>
   </si>
   <si>
@@ -282,6 +267,39 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>1M-AGO</t>
+  </si>
+  <si>
+    <t>2M-AGO</t>
+  </si>
+  <si>
+    <t>6M-AGO</t>
+  </si>
+  <si>
+    <t>1Y-AGO</t>
+  </si>
+  <si>
+    <t>2Y-AGO</t>
+  </si>
+  <si>
+    <t>Last Used</t>
+  </si>
+  <si>
+    <t>3Y-AGO</t>
+  </si>
+  <si>
+    <t>5Y-AGO</t>
+  </si>
+  <si>
+    <t>AI &amp; Automation</t>
+  </si>
+  <si>
+    <t>AI/ML</t>
   </si>
 </sst>
 </file>
@@ -325,10 +343,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,797 +679,939 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{AFF90709-F7D4-4E3E-9984-3704647F0B35}">
-      <formula1>"Using,6M ago,1Y ago,2Y ago,3Y ago"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E257365F-0C3D-4264-AC95-7FAE545761A0}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{AFF90709-F7D4-4E3E-9984-3704647F0B35}">
+          <x14:formula1>
+            <xm:f>validations!$B$2:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E257365F-0C3D-4264-AC95-7FAE545761A0}">
           <x14:formula1>
             <xm:f>validations!$A$2:$A$28</xm:f>
           </x14:formula1>
@@ -1466,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E979E-2FAF-4F43-B2A8-8A374945C80D}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,34 +1636,67 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
